--- a/Turma Intensivo - 439 - Noite Julho 2017/Aula 2/Aula Varios Ses - Exerc.xlsx
+++ b/Turma Intensivo - 439 - Noite Julho 2017/Aula 2/Aula Varios Ses - Exerc.xlsx
@@ -10,7 +10,7 @@
     <sheet name="Contar e Somar" sheetId="3" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Contar e Somar'!$B$8:$E$8</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Contar e Somar'!$B$8:$E$294</definedName>
   </definedNames>
   <calcPr calcId="171027"/>
 </workbook>
@@ -512,7 +512,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="9223098" y="0"/>
+          <a:off x="9227861" y="0"/>
           <a:ext cx="1569555" cy="361629"/>
           <a:chOff x="9009915" y="332447"/>
           <a:chExt cx="3182085" cy="978406"/>
@@ -1028,8 +1028,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:I295"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="H15" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1130,8 +1130,14 @@
       <c r="G9" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="H9" s="3"/>
-      <c r="I9" s="5"/>
+      <c r="H9" s="3">
+        <f>COUNTIF(E9:E294,"Trim 1")</f>
+        <v>99</v>
+      </c>
+      <c r="I9" s="5">
+        <f>SUMIF(E9:E294,"Trim 1",D9:D294)</f>
+        <v>228031.92000000004</v>
+      </c>
     </row>
     <row r="10" spans="2:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="3" t="s">
@@ -1149,8 +1155,14 @@
       <c r="G10" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="H10" s="3"/>
-      <c r="I10" s="5"/>
+      <c r="H10" s="3">
+        <f>COUNTIF(E9:E294,"Trim 2")</f>
+        <v>69</v>
+      </c>
+      <c r="I10" s="5">
+        <f>SUMIF(E9:E294,"Trim 2",D9:D294)</f>
+        <v>144799.01</v>
+      </c>
     </row>
     <row r="11" spans="2:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="3" t="s">
@@ -1168,8 +1180,14 @@
       <c r="G11" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="H11" s="3"/>
-      <c r="I11" s="5"/>
+      <c r="H11" s="3">
+        <f>COUNTIF(E9:E294,"Trim 3")</f>
+        <v>39</v>
+      </c>
+      <c r="I11" s="5">
+        <f>SUMIF(E9:E294,"Trim 3",D9:D294)</f>
+        <v>103724.22000000002</v>
+      </c>
     </row>
     <row r="12" spans="2:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="3" t="s">
@@ -1187,8 +1205,14 @@
       <c r="G12" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="H12" s="3"/>
-      <c r="I12" s="5"/>
+      <c r="H12" s="3">
+        <f>COUNTIF(E9:E294,"Trim 4")</f>
+        <v>79</v>
+      </c>
+      <c r="I12" s="5">
+        <f>SUMIF(E9:E294,"Trim 4",D9:D294)</f>
+        <v>132291.60999999999</v>
+      </c>
     </row>
     <row r="13" spans="2:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="3" t="s">
@@ -1220,8 +1244,14 @@
       <c r="G14" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="H14" s="3"/>
-      <c r="I14" s="4"/>
+      <c r="H14" s="3">
+        <f>COUNTA(E9:E294)</f>
+        <v>286</v>
+      </c>
+      <c r="I14" s="4">
+        <f>SUM(D9:D294)</f>
+        <v>608846.75999999989</v>
+      </c>
     </row>
     <row r="15" spans="2:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" s="3" t="s">
@@ -1253,8 +1283,14 @@
       <c r="G16" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="H16" s="3"/>
-      <c r="I16" s="5"/>
+      <c r="H16" s="3">
+        <f>COUNTIF(B9:B294,"bebidas")</f>
+        <v>46</v>
+      </c>
+      <c r="I16" s="5">
+        <f>SUMIF(B9:B294,"bebidas",D9:D294)</f>
+        <v>102074.29</v>
+      </c>
     </row>
     <row r="17" spans="2:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="3" t="s">
@@ -1272,8 +1308,14 @@
       <c r="G17" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="H17" s="3"/>
-      <c r="I17" s="5"/>
+      <c r="H17" s="3">
+        <f>COUNTIF(B9:B294,"Laticínios")</f>
+        <v>38</v>
+      </c>
+      <c r="I17" s="5">
+        <f>SUMIF(B10:B295,"Laticínios",D10:D295)</f>
+        <v>114749.75</v>
+      </c>
     </row>
     <row r="18" spans="2:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B18" s="3" t="s">
@@ -1305,8 +1347,14 @@
       <c r="G19" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="H19" s="3"/>
-      <c r="I19" s="5"/>
+      <c r="H19" s="3">
+        <f>COUNTIFS(B9:B294,"condimentos",E9:E294,"trim 1")</f>
+        <v>18</v>
+      </c>
+      <c r="I19" s="5">
+        <f>SUMIFS(D9:D294,E9:E294,"trim 1",B9:B294,"condimentos")</f>
+        <v>28640.780000000002</v>
+      </c>
     </row>
     <row r="20" spans="2:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B20" s="3" t="s">
@@ -1343,8 +1391,14 @@
       <c r="G21" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="H21" s="3"/>
-      <c r="I21" s="5"/>
+      <c r="H21" s="3">
+        <f>COUNTIFS(B9:B294,"bebidas",C9:C294,"Guaraná Fantástica",E9:E294,"trim 1")</f>
+        <v>6</v>
+      </c>
+      <c r="I21" s="5">
+        <f>SUMIFS(D9:D294,B9:B294,"bebidas",C9:C294,"Guaraná Fantástica",E9:E294,"trim 1")</f>
+        <v>5567.6100000000006</v>
+      </c>
     </row>
     <row r="22" spans="2:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B22" s="3" t="s">
@@ -5170,6 +5224,7 @@
     </row>
     <row r="295" spans="2:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
+  <autoFilter ref="B8:E294"/>
   <mergeCells count="2">
     <mergeCell ref="B1:I2"/>
     <mergeCell ref="B5:I6"/>
